--- a/Resource/excel/4010-道具-道具类型.xlsx
+++ b/Resource/excel/4010-道具-道具类型.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FighterServer\Face\Resource\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8137C5-799F-4B0F-A754-7F5E41058B90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="26310" windowHeight="13065" tabRatio="710"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" tabRatio="710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="itemtype" sheetId="14" r:id="rId1"/>
@@ -17,12 +23,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PCC</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -97,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -125,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -149,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -179,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
   <si>
     <t>*dark_config</t>
   </si>
@@ -351,18 +357,36 @@
   <si>
     <t>与装备有区别</t>
   </si>
+  <si>
+    <t>底框1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>底框2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>面纹1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>面纹2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -395,157 +419,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -556,202 +429,23 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -759,255 +453,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1044,62 +496,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1114,19 +521,22 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="0005FF6F"/>
+      <color rgb="FF05FF6F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1455,19 +865,19 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="4" customWidth="1"/>
@@ -1479,7 +889,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1497,7 +907,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:11">
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1527,7 +937,7 @@
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:11">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>3</v>
       </c>
@@ -1557,7 +967,7 @@
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:11">
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -1587,7 +997,7 @@
       </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -1615,114 +1025,252 @@
       </c>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="10:10">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="J6" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="10:10">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="J7" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="10:10">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="J8" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="10:10">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="J9" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="10:10">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="J10" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="10:10">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="J11" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="10:10">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="12"/>
       <c r="J12" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="10:10">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="J13" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="10:10">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="J14" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="10:10">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="J15" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="10:10">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="10:10">
+    <row r="17" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="10:10">
+    <row r="18" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J18" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="10:10">
+    <row r="19" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J19" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="10:10">
+    <row r="20" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J20" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="10:10">
+    <row r="21" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J21" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="10:10">
+    <row r="22" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J22" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="10:10">
+    <row r="24" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J24" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="10:10">
+    <row r="25" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J25" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="10:10">
+    <row r="26" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J26" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="10:10">
+    <row r="27" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J27" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="10:10">
+    <row r="28" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J28" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>